--- a/tests/data/HUB4.xlsx
+++ b/tests/data/HUB4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="16770" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="2556" yWindow="2556" windowWidth="16776" windowHeight="11508" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -664,9 +664,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -912,7 +912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -953,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1486,13 +1486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1996,13 +1996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2016,9 +2016,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2026,10 +2026,13 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2037,10 +2040,13 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2048,10 +2054,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2059,10 +2068,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2070,10 +2082,13 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2081,10 +2096,13 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2092,10 +2110,13 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2103,120 +2124,154 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>22</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>27</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2228,9 +2283,9 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2276,7 +2331,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2299,7 +2354,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2322,7 +2377,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2345,7 +2400,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2368,7 +2423,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2391,7 +2446,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2414,7 +2469,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2437,7 +2492,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2460,7 +2515,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2506,7 +2561,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2529,7 +2584,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2552,7 +2607,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2575,7 +2630,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2598,7 +2653,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2621,7 +2676,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2644,7 +2699,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2667,7 +2722,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2690,7 +2745,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2713,7 +2768,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2736,7 +2791,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2759,7 +2814,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2782,7 +2837,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2805,7 +2860,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="D26" s="3"/>
@@ -2825,9 +2880,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2838,7 +2893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2849,7 +2904,7 @@
         <v>0.10350923305959714</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2860,7 +2915,7 @@
         <v>9.2317913349199976E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2871,7 +2926,7 @@
         <v>8.3538161955200529E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2882,7 +2937,7 @@
         <v>0.11104720001916199</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2893,7 +2948,7 @@
         <v>6.9228441909960331E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2904,7 +2959,7 @@
         <v>0.16456693054801391</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2915,7 +2970,7 @@
         <v>0.68490690875190197</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2926,7 +2981,7 @@
         <v>1.3656968858010388</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2937,7 +2992,7 @@
         <v>2.3277136912644711</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2948,7 +3003,7 @@
         <v>3.1920136508663979</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2959,7 +3014,7 @@
         <v>3.4873621766385519</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2970,7 +3025,7 @@
         <v>3.7034880899724727</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2981,7 +3036,7 @@
         <v>3.4973792281814156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2992,7 +3047,7 @@
         <v>3.6504595379297777</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3003,7 +3058,7 @@
         <v>3.2393720339272698</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3014,7 +3069,7 @@
         <v>2.7919111302308885</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3025,7 +3080,7 @@
         <v>1.9611646467849471</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3036,7 +3091,7 @@
         <v>1.1346076745675999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3047,7 +3102,7 @@
         <v>0.66966476990076118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3058,7 +3113,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3069,7 +3124,7 @@
         <v>0.44350723304963979</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3080,7 +3135,7 @@
         <v>0.37469723182029513</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3091,7 +3146,7 @@
         <v>0.2886355532757563</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3116,9 +3171,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>41</v>
@@ -3127,7 +3182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3138,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3149,17 +3204,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
